--- a/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>86.11032271537948</v>
+        <v>92.25201738285716</v>
       </c>
       <c r="D2" t="n">
-        <v>31.71815533241397</v>
+        <v>29.86826584541857</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.92154624424239</v>
+        <v>88.01892945756293</v>
       </c>
       <c r="D3" t="n">
-        <v>30.98762138604094</v>
+        <v>32.89732143320542</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>95.08305528778153</v>
+        <v>95.27173073140621</v>
       </c>
       <c r="D4" t="n">
-        <v>28.44488490571974</v>
+        <v>31.99936071626651</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.54189120278409</v>
+        <v>89.03529577239131</v>
       </c>
       <c r="D5" t="n">
-        <v>31.97762446307233</v>
+        <v>27.53906825258736</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.85530912261207</v>
+        <v>88.26706223893366</v>
       </c>
       <c r="D6" t="n">
-        <v>36.02641604725017</v>
+        <v>29.48244127194607</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.70774994329884</v>
+        <v>85.00017967319613</v>
       </c>
       <c r="D7" t="n">
-        <v>36.16220940613842</v>
+        <v>33.30408846664266</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>95.51305594890734</v>
+        <v>92.66926672511677</v>
       </c>
       <c r="D8" t="n">
-        <v>37.4315702158141</v>
+        <v>34.38941221284733</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>92.94139547628114</v>
+        <v>88.33647939682351</v>
       </c>
       <c r="D9" t="n">
-        <v>33.78865826721088</v>
+        <v>30.94565807201727</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>90.70289457489585</v>
+        <v>85.15402852802801</v>
       </c>
       <c r="D10" t="n">
-        <v>30.21371042845115</v>
+        <v>31.42924363812275</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.22215040362087</v>
+        <v>80.08342760224336</v>
       </c>
       <c r="D11" t="n">
-        <v>28.56214342201934</v>
+        <v>32.15743499103466</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.84943732174892</v>
+        <v>82.56131052627518</v>
       </c>
       <c r="D12" t="n">
-        <v>36.22591224915107</v>
+        <v>32.31710360264714</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.90856556091116</v>
+        <v>80.15665854237473</v>
       </c>
       <c r="D13" t="n">
-        <v>30.35617402493801</v>
+        <v>29.6706302348904</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.03939861644062</v>
+        <v>79.77199819631637</v>
       </c>
       <c r="D14" t="n">
-        <v>35.69545704345154</v>
+        <v>30.48642988680928</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.68994485230391</v>
+        <v>79.10621715430224</v>
       </c>
       <c r="D15" t="n">
-        <v>33.64018240588565</v>
+        <v>32.41583884958933</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02046743815208</v>
+        <v>77.32270442652319</v>
       </c>
       <c r="D16" t="n">
-        <v>32.92091041987985</v>
+        <v>29.00099192786288</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.0891414074773</v>
+        <v>76.14977430929591</v>
       </c>
       <c r="D17" t="n">
-        <v>31.7883884108501</v>
+        <v>32.92922998626216</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>78.36897907185673</v>
+        <v>72.70134765315335</v>
       </c>
       <c r="D18" t="n">
-        <v>30.1357003782188</v>
+        <v>27.73345623153101</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.06540658321732</v>
+        <v>75.02029353725381</v>
       </c>
       <c r="D19" t="n">
-        <v>28.90206399546464</v>
+        <v>30.28860772166032</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>76.88562521375883</v>
+        <v>71.79537115778626</v>
       </c>
       <c r="D20" t="n">
-        <v>30.33013816752323</v>
+        <v>29.54035951031521</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.15483974271369</v>
+        <v>72.07042342994953</v>
       </c>
       <c r="D21" t="n">
-        <v>34.05103655376679</v>
+        <v>30.95358761791649</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>65.38971928600493</v>
+        <v>78.02456055756707</v>
       </c>
       <c r="D22" t="n">
-        <v>36.47021134354614</v>
+        <v>33.26785788264125</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.79261163571672</v>
+        <v>74.54705766629883</v>
       </c>
       <c r="D23" t="n">
-        <v>33.17815174192202</v>
+        <v>29.09573320056261</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>65.65487785094666</v>
+        <v>64.32556759332815</v>
       </c>
       <c r="D24" t="n">
-        <v>35.49198950781634</v>
+        <v>31.84507782955448</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.56329690079288</v>
+        <v>66.91301399876652</v>
       </c>
       <c r="D25" t="n">
-        <v>32.56588764964718</v>
+        <v>30.7458629944074</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.33503856205742</v>
+        <v>68.72651853845065</v>
       </c>
       <c r="D26" t="n">
-        <v>32.21607238148553</v>
+        <v>34.11995349619622</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>72.43071625631252</v>
+        <v>70.70635717365808</v>
       </c>
       <c r="D27" t="n">
-        <v>30.99593752613855</v>
+        <v>32.32809395225704</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>69.20443958341573</v>
+        <v>63.27669319858451</v>
       </c>
       <c r="D28" t="n">
-        <v>31.68957616877891</v>
+        <v>35.16543132304226</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.82914998324732</v>
+        <v>59.57532434799045</v>
       </c>
       <c r="D29" t="n">
-        <v>34.70898575466459</v>
+        <v>28.64104294346802</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>69.45348519505676</v>
+        <v>62.35889352821403</v>
       </c>
       <c r="D30" t="n">
-        <v>34.99827211074606</v>
+        <v>31.1980099732645</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.94839051526105</v>
+        <v>58.40997384378528</v>
       </c>
       <c r="D31" t="n">
-        <v>32.70292229379917</v>
+        <v>30.86641077825173</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.97402051989125</v>
+        <v>66.86097408867066</v>
       </c>
       <c r="D32" t="n">
-        <v>31.99602674344657</v>
+        <v>30.01612528884976</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>63.16313279417958</v>
+        <v>57.16656712491181</v>
       </c>
       <c r="D33" t="n">
-        <v>31.79616324477121</v>
+        <v>30.00880727101538</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>63.14912217919342</v>
+        <v>63.88621574411208</v>
       </c>
       <c r="D34" t="n">
-        <v>29.26635734359127</v>
+        <v>26.59310798415157</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.43264256240651</v>
+        <v>53.30073450147504</v>
       </c>
       <c r="D35" t="n">
-        <v>33.70708060922583</v>
+        <v>31.44987067328746</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>50.71793146065992</v>
+        <v>60.24107111018702</v>
       </c>
       <c r="D36" t="n">
-        <v>31.11172077176321</v>
+        <v>30.553204665305</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>62.24236369637504</v>
+        <v>58.08144696900997</v>
       </c>
       <c r="D37" t="n">
-        <v>33.73741269257328</v>
+        <v>32.43626531231907</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.22534360816235</v>
+        <v>55.93363057162998</v>
       </c>
       <c r="D38" t="n">
-        <v>36.8241572584227</v>
+        <v>32.35605280577739</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.21100961253049</v>
+        <v>57.20724133040156</v>
       </c>
       <c r="D39" t="n">
-        <v>29.87722551396221</v>
+        <v>31.5019632928683</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.81675233562753</v>
+        <v>50.4731706828119</v>
       </c>
       <c r="D40" t="n">
-        <v>31.66960298126536</v>
+        <v>30.4799411858892</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>47.69849370391327</v>
+        <v>54.25144562616534</v>
       </c>
       <c r="D41" t="n">
-        <v>35.65320863704041</v>
+        <v>27.82501724642103</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.46456901479454</v>
+        <v>45.82243845172115</v>
       </c>
       <c r="D42" t="n">
-        <v>32.02489542362228</v>
+        <v>30.46437808408152</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.01550079647956</v>
+        <v>55.30904012474846</v>
       </c>
       <c r="D43" t="n">
-        <v>33.51250372852636</v>
+        <v>32.2218240168862</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>52.14094777451266</v>
+        <v>44.18565352866367</v>
       </c>
       <c r="D44" t="n">
-        <v>33.48463452331366</v>
+        <v>28.38556712075347</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>42.48443982353021</v>
+        <v>41.92055964766597</v>
       </c>
       <c r="D45" t="n">
-        <v>31.5572798213391</v>
+        <v>31.67704853916864</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.40885305935498</v>
+        <v>47.85513236584071</v>
       </c>
       <c r="D46" t="n">
-        <v>33.48047107879625</v>
+        <v>28.5992266993088</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>40.64135999074913</v>
+        <v>43.19940260512001</v>
       </c>
       <c r="D47" t="n">
-        <v>35.2028302969405</v>
+        <v>29.18617858501148</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>48.41691078806102</v>
+        <v>42.75769087376985</v>
       </c>
       <c r="D48" t="n">
-        <v>32.89541248282147</v>
+        <v>33.96119997015452</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.98325980198216</v>
+        <v>41.3908336908875</v>
       </c>
       <c r="D49" t="n">
-        <v>31.90610220811959</v>
+        <v>29.38965385749959</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.40093453746171</v>
+        <v>41.03674149704079</v>
       </c>
       <c r="D50" t="n">
-        <v>29.88403844330162</v>
+        <v>28.26359074153648</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.90402956637985</v>
+        <v>37.94960158419331</v>
       </c>
       <c r="D51" t="n">
-        <v>32.76409151465808</v>
+        <v>35.79909191933321</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>44.15499521049247</v>
+        <v>36.10629262284283</v>
       </c>
       <c r="D52" t="n">
-        <v>31.6094874276354</v>
+        <v>30.39480428262173</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.34520755694146</v>
+        <v>37.92087232478463</v>
       </c>
       <c r="D53" t="n">
-        <v>30.59430661666451</v>
+        <v>33.54606980358199</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>45.09695221774307</v>
+        <v>36.40738139710425</v>
       </c>
       <c r="D54" t="n">
-        <v>31.85705652753166</v>
+        <v>29.39578180002131</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.97309243488953</v>
+        <v>32.09439008718135</v>
       </c>
       <c r="D55" t="n">
-        <v>30.61071706949993</v>
+        <v>29.13032206331984</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.85542468445701</v>
+        <v>37.12006995791314</v>
       </c>
       <c r="D56" t="n">
-        <v>28.37160506017897</v>
+        <v>31.73993173713063</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.4888414964116</v>
+        <v>40.87042340053216</v>
       </c>
       <c r="D57" t="n">
-        <v>27.25696954444187</v>
+        <v>30.18767786634326</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>38.32499361838544</v>
+        <v>35.95607855215305</v>
       </c>
       <c r="D58" t="n">
-        <v>38.48718470023218</v>
+        <v>31.27953929190661</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>37.40105075101556</v>
+        <v>30.20615529333768</v>
       </c>
       <c r="D59" t="n">
-        <v>30.16928926370161</v>
+        <v>35.18830623047086</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>35.20156516823437</v>
+        <v>32.07825364190294</v>
       </c>
       <c r="D60" t="n">
-        <v>31.73980007869253</v>
+        <v>28.57230907586995</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>35.96413809698028</v>
+        <v>32.85196401906316</v>
       </c>
       <c r="D61" t="n">
-        <v>32.50121140613084</v>
+        <v>32.49221171806231</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>27.82844278525824</v>
+        <v>23.88106336265959</v>
       </c>
       <c r="D62" t="n">
-        <v>32.62903764110862</v>
+        <v>31.73247897563526</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>25.74162705229642</v>
+        <v>27.25066033780141</v>
       </c>
       <c r="D63" t="n">
-        <v>26.10720762765153</v>
+        <v>30.15538329655081</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.74467366996983</v>
+        <v>31.52661064168852</v>
       </c>
       <c r="D64" t="n">
-        <v>28.10573240031878</v>
+        <v>29.35756249380909</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.34135847645041</v>
+        <v>25.15782548660416</v>
       </c>
       <c r="D65" t="n">
-        <v>32.60740343308526</v>
+        <v>30.92085483533345</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.01202374819162</v>
+        <v>23.87434729244547</v>
       </c>
       <c r="D66" t="n">
-        <v>30.36264179334927</v>
+        <v>29.3625331718517</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>20.41972557579637</v>
+        <v>30.93479144749785</v>
       </c>
       <c r="D67" t="n">
-        <v>30.12677311701944</v>
+        <v>27.07332877742901</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.24916121896392</v>
+        <v>28.19852075292976</v>
       </c>
       <c r="D68" t="n">
-        <v>30.82304385453926</v>
+        <v>34.66337979082308</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.11219679659585</v>
+        <v>26.54915558593487</v>
       </c>
       <c r="D69" t="n">
-        <v>29.58377217097322</v>
+        <v>30.64375990324719</v>
       </c>
     </row>
   </sheetData>
